--- a/기획/PM/스케줄표.xlsx
+++ b/기획/PM/스케줄표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity 프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityproject\1team_UnityProject\기획\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9704C9CA-0725-43CE-A1EB-D9D4A02F0314}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0F19D7-9EBC-4424-8D89-643BE6E51364}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{6FB645F9-3555-4BCF-AAB8-0971AFB5A311}"/>
+    <workbookView xWindow="3720" yWindow="270" windowWidth="21060" windowHeight="15593" xr2:uid="{6FB645F9-3555-4BCF-AAB8-0971AFB5A311}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 스케줄 표" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -80,11 +80,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>28일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 남은 일수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학원 등교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +124,22 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -140,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -363,13 +387,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,48 +470,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -466,23 +485,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6A1A28-E376-4DB1-9615-4B1938BBACC2}">
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -859,33 +935,35 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="15"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="26"/>
+      <c r="E4" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="15"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="2:12" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B6" s="15"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="2:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B7" s="12">
@@ -909,62 +987,64 @@
       <c r="H7" s="6">
         <v>30</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="28">
+      <c r="K7" s="25"/>
+      <c r="L7" s="14">
         <f ca="1">TODAY()</f>
         <v>44214</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="15"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="26"/>
-      <c r="J8" s="34" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="29">
-        <v>44242</v>
+      <c r="K8" s="23"/>
+      <c r="L8" s="15">
+        <v>44237</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="15"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="26"/>
-      <c r="J9" s="34" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="30" t="s">
+      <c r="K9" s="23"/>
+      <c r="L9" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B10" s="26"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B10" s="15"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="26"/>
-      <c r="J10" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="31">
+      <c r="K10" s="21"/>
+      <c r="L10" s="17">
         <f ca="1">L7-L8-1</f>
-        <v>-29</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
@@ -989,34 +1069,38 @@
       <c r="H11" s="6">
         <v>6</v>
       </c>
-      <c r="L11" s="27"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="15"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="15"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="15"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="2:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B15" s="12">
@@ -1042,37 +1126,39 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="15"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="15"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="15"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B19" s="12">
@@ -1081,68 +1167,43 @@
       <c r="C19" s="3">
         <v>15</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="15"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
     </row>
     <row r="22" spans="2:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B22" s="16"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="B20:B22"/>
@@ -1155,6 +1216,29 @@
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="G16:G18"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1167,7 +1251,7 @@
   <dimension ref="B1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1223,33 +1307,33 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="15"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="26"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="15"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="15"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B7" s="12">
@@ -1275,31 +1359,31 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="15"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="15"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="15"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B11" s="12">
@@ -1325,31 +1409,31 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="15"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="15"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="15"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B15" s="12">
@@ -1375,37 +1459,37 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="15"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="15"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="15"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B19" s="12">
@@ -1414,60 +1498,45 @@
       <c r="C19" s="3">
         <v>15</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="15"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
     </row>
     <row r="22" spans="2:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B22" s="16"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
     <mergeCell ref="D19:H22"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
@@ -1484,6 +1553,21 @@
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
